--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,39 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Youssef You</v>
+        <v>mmmmml</v>
       </c>
       <c r="B2" t="str">
-        <v>12345678</v>
+        <v>101</v>
       </c>
       <c r="C2" t="str">
-        <v>112456876821421212454587</v>
+        <v>011111111000101010100101</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>123132</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>666/pv666</v>
+        <v>444/AA4444</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
+        <v>12200</v>
+      </c>
+      <c r="J2">
+        <v>1830</v>
+      </c>
+      <c r="K2">
+        <v>10370</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>aaaaaaa</v>
+      </c>
+      <c r="B3" t="str">
+        <v>aaaaa</v>
+      </c>
+      <c r="C3" t="str">
+        <v>121313213213213213213213</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>321321</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G3" t="str">
+        <v>006/tESTDRR</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I3">
         <v>10000</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>1500</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>8500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>mmmmml</v>
+        <v>lala morale</v>
       </c>
       <c r="B2" t="str">
-        <v>101</v>
+        <v>113564</v>
       </c>
       <c r="C2" t="str">
-        <v>011111111000101010100101</v>
+        <v>114321654687987654543213</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>10</v>
+        <v>23132</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>444/AA4444</v>
+        <v>001/TEST DR/AV</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>12200</v>
+        <v>24000</v>
       </c>
       <c r="J2">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10370</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>aaaaaaa</v>
+        <v>YASSINE TYEST</v>
       </c>
       <c r="B3" t="str">
-        <v>aaaaa</v>
+        <v>BB125874</v>
       </c>
       <c r="C3" t="str">
-        <v>121313213213213213213213</v>
+        <v>115649679785432432321321</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>321321</v>
+        <v>tesqt</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>006/tESTDRR</v>
+        <v>001/TEST DR/AV</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>5400</v>
       </c>
       <c r="K3">
-        <v>8500</v>
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mustapha Tahiri</v>
+      </c>
+      <c r="B4" t="str">
+        <v>BB147852</v>
+      </c>
+      <c r="C4" t="str">
+        <v>114649797854321313211111</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>11111</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>002/tEST drrr/AV</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>20000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tawfiq mf</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BB169785</v>
+      </c>
+      <c r="C5" t="str">
+        <v>114649778543212222222222</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>2222</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G5" t="str">
+        <v>002/LF/tEST drrr/AV</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>3000</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Test mf</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BB979797</v>
+      </c>
+      <c r="C6" t="str">
+        <v>116649797855555555555555</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>1346</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G6" t="str">
+        <v>002/LF/tEST drrr/AV</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>7000</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+      <c r="K6">
+        <v>6300</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,217 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>mmmmml</v>
+        <v xml:space="preserve">STE LOCATION </v>
       </c>
       <c r="B2" t="str">
-        <v>101</v>
+        <v>31451</v>
       </c>
       <c r="C2" t="str">
-        <v>011111111000101010100101</v>
+        <v>313156456461638489461313</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>MAARIF</v>
       </c>
       <c r="E2" t="str">
-        <v>10</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>444/AA4444</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>12200</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10370</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>aaaaaaa</v>
+        <v xml:space="preserve">STE MAISON </v>
       </c>
       <c r="B3" t="str">
-        <v>aaaaa</v>
+        <v>56987</v>
       </c>
       <c r="C3" t="str">
-        <v>121313213213213213213213</v>
+        <v>322656131365484946461313</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve">2 MARS </v>
       </c>
       <c r="E3" t="str">
-        <v>321321</v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>006/tESTDRR</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8500</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>STT22</v>
+      </c>
+      <c r="B4" t="str">
+        <v>654566</v>
+      </c>
+      <c r="C4" t="str">
+        <v>321654161265465131654846</v>
+      </c>
+      <c r="D4" t="str">
+        <v>AG5</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G4" t="str">
+        <v>903/CASA ANFA/AV</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>15000</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SARA DADA</v>
+      </c>
+      <c r="B5" t="str">
+        <v>F354654</v>
+      </c>
+      <c r="C5" t="str">
+        <v>365464631351684894899761</v>
+      </c>
+      <c r="D5" t="str">
+        <v>RABAT AGDAL</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G5" t="str">
+        <v>602/CASA 2MARS</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>20000</v>
+      </c>
+      <c r="J5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">KHALID VAVA </v>
+      </c>
+      <c r="B6" t="str">
+        <v>O3546845</v>
+      </c>
+      <c r="C6" t="str">
+        <v>321564613641864613156486</v>
+      </c>
+      <c r="D6" t="str">
+        <v>AG 5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G6" t="str">
+        <v>120/SUP 2/AV</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>9000</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>KARIMA NANA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>F6546856</v>
+      </c>
+      <c r="C7" t="str">
+        <v>547654165416485126984416</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G7" t="str">
+        <v>120/SUP 2/AV</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>6000</v>
+      </c>
+      <c r="J7">
+        <v>600</v>
+      </c>
+      <c r="K7">
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,217 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">STE LOCATION </v>
+        <v>Hemadi test</v>
       </c>
       <c r="B2" t="str">
-        <v>31451</v>
+        <v>te54646</v>
       </c>
       <c r="C2" t="str">
-        <v>313156456461638489461313</v>
+        <v>160648979879898741546465</v>
       </c>
       <c r="D2" t="str">
-        <v>MAARIF</v>
+        <v>aa</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>bmce</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>512/CASA 2</v>
+        <v>004/DR004</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">STE MAISON </v>
+        <v>test test</v>
       </c>
       <c r="B3" t="str">
-        <v>56987</v>
+        <v>sa64546</v>
       </c>
       <c r="C3" t="str">
-        <v>322656131365484946461313</v>
+        <v>035464468464450654646454</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve">2 MARS </v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v>aaa</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>512/CASA 2</v>
+        <v>005/DR005</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>STT22</v>
+        <v>AHMED TAWFIQ</v>
       </c>
       <c r="B4" t="str">
-        <v>654566</v>
+        <v>BB123459</v>
       </c>
       <c r="C4" t="str">
-        <v>321654161265465131654846</v>
+        <v>116649788532543216548755</v>
       </c>
       <c r="D4" t="str">
-        <v>AG5</v>
+        <v>CIH AGADIR</v>
       </c>
       <c r="E4" t="str">
-        <v>BP</v>
+        <v>CIH</v>
       </c>
       <c r="F4" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G4" t="str">
-        <v>903/CASA ANFA/AV</v>
+        <v>979/LF/TESTes</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4006.524</v>
       </c>
       <c r="K4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SARA DADA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>F354654</v>
-      </c>
-      <c r="C5" t="str">
-        <v>365464631351684894899761</v>
-      </c>
-      <c r="D5" t="str">
-        <v>RABAT AGDAL</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>602/CASA 2MARS</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>20000</v>
-      </c>
-      <c r="J5">
-        <v>3000</v>
-      </c>
-      <c r="K5">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve">KHALID VAVA </v>
-      </c>
-      <c r="B6" t="str">
-        <v>O3546845</v>
-      </c>
-      <c r="C6" t="str">
-        <v>321564613641864613156486</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AG 5</v>
-      </c>
-      <c r="E6" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G6" t="str">
-        <v>120/SUP 2/AV</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>9000</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>KARIMA NANA</v>
-      </c>
-      <c r="B7" t="str">
-        <v>F6546856</v>
-      </c>
-      <c r="C7" t="str">
-        <v>547654165416485126984416</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>NO</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G7" t="str">
-        <v>120/SUP 2/AV</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>6000</v>
-      </c>
-      <c r="J7">
-        <v>600</v>
-      </c>
-      <c r="K7">
-        <v>5400</v>
+        <v>55993.476</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,112 +417,602 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Hemadi test</v>
+        <v xml:space="preserve">STE LOCATION </v>
       </c>
       <c r="B2" t="str">
-        <v>te54646</v>
+        <v>31451</v>
       </c>
       <c r="C2" t="str">
-        <v>160648979879898741546465</v>
+        <v>313156456461638489461313</v>
       </c>
       <c r="D2" t="str">
-        <v>aa</v>
+        <v>MAARIF</v>
       </c>
       <c r="E2" t="str">
-        <v>bmce</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>004/DR004</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>test test</v>
+        <v xml:space="preserve">STE MAISON </v>
       </c>
       <c r="B3" t="str">
-        <v>sa64546</v>
+        <v>56987</v>
       </c>
       <c r="C3" t="str">
-        <v>035464468464450654646454</v>
+        <v>322656131365484946461313</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve">2 MARS </v>
       </c>
       <c r="E3" t="str">
-        <v>aaa</v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>005/DR005</v>
+        <v>512/CASA 2</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>AHMED TAWFIQ</v>
+        <v>STT22</v>
       </c>
       <c r="B4" t="str">
-        <v>BB123459</v>
+        <v>654566</v>
       </c>
       <c r="C4" t="str">
-        <v>116649788532543216548755</v>
+        <v>321654161265465131654846</v>
       </c>
       <c r="D4" t="str">
-        <v>CIH AGADIR</v>
+        <v>AG5</v>
       </c>
       <c r="E4" t="str">
-        <v>CIH</v>
+        <v>BP</v>
       </c>
       <c r="F4" t="str">
-        <v>Logement de fonction</v>
+        <v>Point de vente</v>
       </c>
       <c r="G4" t="str">
-        <v>979/LF/TESTes</v>
+        <v>903/CASA ANFA/AV</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="J4">
-        <v>4006.524</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>55993.476</v>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">KHALID VAVA </v>
+      </c>
+      <c r="B5" t="str">
+        <v>O3546845</v>
+      </c>
+      <c r="C5" t="str">
+        <v>321564613641864613156486</v>
+      </c>
+      <c r="D5" t="str">
+        <v>AG 5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>bmce</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G5" t="str">
+        <v>120/SUP 2/AV</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>9000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KARIMA NANA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>F6546856</v>
+      </c>
+      <c r="C6" t="str">
+        <v>547654165416485126984416</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G6" t="str">
+        <v>120/SUP 2/AV</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>6000</v>
+      </c>
+      <c r="J6">
+        <v>600</v>
+      </c>
+      <c r="K6">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ZAZA EELA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>L3546465</v>
+      </c>
+      <c r="C7" t="str">
+        <v>424684743164132132365461</v>
+      </c>
+      <c r="D7" t="str">
+        <v>AGGG89</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G7" t="str">
+        <v>965/PVFF222/AV</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>6000</v>
+      </c>
+      <c r="J7">
+        <v>600</v>
+      </c>
+      <c r="K7">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SARA ELLLL</v>
+      </c>
+      <c r="B8" t="str">
+        <v>K5346431</v>
+      </c>
+      <c r="C8" t="str">
+        <v>132364598789763312145468</v>
+      </c>
+      <c r="D8" t="str">
+        <v>AGGGGYYY6655</v>
+      </c>
+      <c r="E8" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G8" t="str">
+        <v>965/PVFF222/AV</v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>14000</v>
+      </c>
+      <c r="J8">
+        <v>2100</v>
+      </c>
+      <c r="K8">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>STE 663</v>
+      </c>
+      <c r="B9" t="str">
+        <v>354653</v>
+      </c>
+      <c r="C9" t="str">
+        <v>345463564313546847867431</v>
+      </c>
+      <c r="D9" t="str">
+        <v>AGG4455</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G9" t="str">
+        <v>662/PV 55586/AV</v>
+      </c>
+      <c r="H9" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>AVENT LLLL</v>
+      </c>
+      <c r="B10" t="str">
+        <v>H6356525</v>
+      </c>
+      <c r="C10" t="str">
+        <v>321456468532136546431568</v>
+      </c>
+      <c r="D10" t="str">
+        <v>AGGGTTT3563</v>
+      </c>
+      <c r="E10" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G10" t="str">
+        <v>662/PV 55586/AV</v>
+      </c>
+      <c r="H10" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I10">
+        <v>5000</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>LOCATION 55</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3546546</v>
+      </c>
+      <c r="C11" t="str">
+        <v>365465456464646489475614</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G11" t="str">
+        <v>788/SUPP600/AV</v>
+      </c>
+      <c r="H11" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I11">
+        <v>10000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>KJIKHIUHI</v>
+      </c>
+      <c r="B12" t="str">
+        <v>35486464</v>
+      </c>
+      <c r="C12" t="str">
+        <v>352564894621564894615616</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v>KKKK</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G12" t="str">
+        <v>788/SUPP600/AV</v>
+      </c>
+      <c r="H12" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>MORAD FFFF</v>
+      </c>
+      <c r="B13" t="str">
+        <v>J5498456</v>
+      </c>
+      <c r="C13" t="str">
+        <v>368489494656546546465464</v>
+      </c>
+      <c r="D13" t="str">
+        <v>AGGTT 669</v>
+      </c>
+      <c r="E13" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G13" t="str">
+        <v>668/TANGER/AV</v>
+      </c>
+      <c r="H13" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I13">
+        <v>24000</v>
+      </c>
+      <c r="J13">
+        <v>3600</v>
+      </c>
+      <c r="K13">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>SALMA KJLJOIO</v>
+      </c>
+      <c r="B14" t="str">
+        <v>J5648645</v>
+      </c>
+      <c r="C14" t="str">
+        <v>549865265269845263259685</v>
+      </c>
+      <c r="D14" t="str">
+        <v>LKOK</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">BP </v>
+      </c>
+      <c r="F14" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G14" t="str">
+        <v>668/TANGER/AV</v>
+      </c>
+      <c r="H14" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I14">
+        <v>36000</v>
+      </c>
+      <c r="J14">
+        <v>5400</v>
+      </c>
+      <c r="K14">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>KLJKLJ L</v>
+      </c>
+      <c r="B15" t="str">
+        <v>K53464</v>
+      </c>
+      <c r="C15" t="str">
+        <v>324684636545641489791668</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">BP </v>
+      </c>
+      <c r="F15" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G15" t="str">
+        <v>963/PV KJHUIJHKJ/AV</v>
+      </c>
+      <c r="H15" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I15">
+        <v>40000</v>
+      </c>
+      <c r="J15">
+        <v>6000</v>
+      </c>
+      <c r="K15">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>LKLKL IJIO</v>
+      </c>
+      <c r="B16" t="str">
+        <v>L5676815</v>
+      </c>
+      <c r="C16" t="str">
+        <v>354654168798463549874165</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>KP</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G16" t="str">
+        <v>336/SPO33</v>
+      </c>
+      <c r="H16" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I16">
+        <v>30000</v>
+      </c>
+      <c r="J16">
+        <v>4500</v>
+      </c>
+      <c r="K16">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>MADIHA LLL</v>
+      </c>
+      <c r="B17" t="str">
+        <v>J5248541</v>
+      </c>
+      <c r="C17" t="str">
+        <v>874854848788456487486546</v>
+      </c>
+      <c r="D17" t="str">
+        <v>KLJ200</v>
+      </c>
+      <c r="E17" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G17" t="str">
+        <v>522/PV TT522</v>
+      </c>
+      <c r="H17" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I17">
+        <v>15000</v>
+      </c>
+      <c r="J17">
+        <v>2250</v>
+      </c>
+      <c r="K17">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>karima ggfff</v>
+      </c>
+      <c r="B18" t="str">
+        <v>f548561</v>
+      </c>
+      <c r="C18" t="str">
+        <v>564864361864789321564621</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>bp</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G18" t="str">
+        <v>522/PV TT522</v>
+      </c>
+      <c r="H18" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I18">
+        <v>12000</v>
+      </c>
+      <c r="J18">
+        <v>1800</v>
+      </c>
+      <c r="K18">
+        <v>10200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -417,107 +417,98 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mimo crimo</v>
+        <v>Karami abdelilah</v>
       </c>
       <c r="B2" t="str">
-        <v>ad646456</v>
-      </c>
-      <c r="C2" t="str">
-        <v>365165415640064545465654</v>
+        <v>BB779645</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>chaabi</v>
       </c>
       <c r="E2" t="str">
-        <v>a46d</v>
+        <v>chaabi</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>797/DR TADLA</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="J2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K2">
-        <v>5400</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ali Ali</v>
+        <v>mediexpets</v>
       </c>
       <c r="B3" t="str">
-        <v>aa654556</v>
-      </c>
-      <c r="C3" t="str">
-        <v>566564505100516654656545</v>
+        <v>1196797</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>bmce</v>
       </c>
       <c r="E3" t="str">
-        <v>ad66</v>
+        <v>bmce</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>010/DR010/AV</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>momi lomi</v>
+        <v>mediexpets</v>
       </c>
       <c r="B4" t="str">
-        <v>as46546</v>
-      </c>
-      <c r="C4" t="str">
-        <v>555555555547750604645464</v>
+        <v>1196797</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>bmce</v>
       </c>
       <c r="E4" t="str">
-        <v>aq6</v>
+        <v>bmce</v>
       </c>
       <c r="F4" t="str">
-        <v>Siège</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G4" t="str">
-        <v>006/123</v>
+        <v>001/LF/TEST DR</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +537,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I5">
-        <v>8000</v>
+        <v>140000</v>
       </c>
       <c r="J5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K5">
-        <v>7400</v>
+        <v>139200</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,42 +513,74 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Ahmed Test</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BG1949</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>bmce</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>bmce</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Supervision</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>040/SUP SUD</v>
       </c>
       <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="K5">
-        <v>139200</v>
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>155000</v>
+      </c>
+      <c r="J6">
+        <v>3050</v>
+      </c>
+      <c r="K6">
+        <v>151950</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,45 +417,51 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Karami abdelilah</v>
+        <v>Anas tawfiqi</v>
       </c>
       <c r="B2" t="str">
-        <v>BB779645</v>
+        <v>BJ49785</v>
+      </c>
+      <c r="C2" t="str">
+        <v>119649797865846253213687</v>
       </c>
       <c r="D2" t="str">
-        <v>chaabi</v>
+        <v>cih</v>
       </c>
       <c r="E2" t="str">
-        <v>chaabi</v>
+        <v>cih</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/TEST DR</v>
+        <v>002/DR002/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>16000</v>
+        <v>32500</v>
       </c>
       <c r="J2">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="K2">
-        <v>15200</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>mediexpets</v>
+        <v>real madrid fc</v>
       </c>
       <c r="B3" t="str">
-        <v>1196797</v>
+        <v>110384</v>
+      </c>
+      <c r="C3" t="str">
+        <v>114298485748578394873948</v>
       </c>
       <c r="D3" t="str">
-        <v>bmce</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v>bmce</v>
@@ -464,123 +470,59 @@
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>001/TEST DR</v>
+        <v>108/ANSYSFYSN01/AV1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K3">
-        <v>4000</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>mediexpets</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>1196797</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>bmce</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>bmce</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Logement de fonction</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>001/LF/TEST DR</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>120000</v>
+        <v>51500</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2950</v>
       </c>
       <c r="K4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Ahmed Test</v>
-      </c>
-      <c r="B5" t="str">
-        <v>BG1949</v>
-      </c>
-      <c r="D5" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="E5" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G5" t="str">
-        <v>040/SUP SUD</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>15000</v>
-      </c>
-      <c r="J5">
-        <v>2250</v>
-      </c>
-      <c r="K5">
-        <v>12750</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6">
-        <v>155000</v>
-      </c>
-      <c r="J6">
-        <v>3050</v>
-      </c>
-      <c r="K6">
-        <v>151950</v>
+        <v>48550</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -417,37 +417,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Anas tawfiqi</v>
+        <v>Ahmed Test</v>
       </c>
       <c r="B2" t="str">
-        <v>BJ49785</v>
+        <v>BG1949</v>
       </c>
       <c r="C2" t="str">
-        <v>119649797865846253213687</v>
+        <v>117165465787878754625432</v>
       </c>
       <c r="D2" t="str">
-        <v>cih</v>
+        <v>bmce</v>
       </c>
       <c r="E2" t="str">
-        <v>cih</v>
+        <v>bmce</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>002/DR002/AV1</v>
+        <v>794/DR KESH</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>32500</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>2250</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>30250</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +511,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>51500</v>
+        <v>29000</v>
       </c>
       <c r="J4">
-        <v>2950</v>
+        <v>2200</v>
       </c>
       <c r="K4">
-        <v>48550</v>
+        <v>26800</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ahmed Test</v>
+        <v>real madrid fc</v>
       </c>
       <c r="B2" t="str">
-        <v>BG1949</v>
+        <v>110384</v>
       </c>
       <c r="C2" t="str">
-        <v>117165465787878754625432</v>
+        <v>114298485748578394873948</v>
       </c>
       <c r="D2" t="str">
-        <v>bmce</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v>bmce</v>
@@ -435,94 +435,59 @@
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>794/DR KESH</v>
+        <v>108/ANSYSFYSN01</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K2">
-        <v>8500</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>real madrid fc</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>110384</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>114298485748578394873948</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>bmce</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>108/ANSYSFYSN01/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="J3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K3">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I4">
-        <v>29000</v>
-      </c>
-      <c r="J4">
-        <v>2200</v>
-      </c>
-      <c r="K4">
-        <v>26800</v>
+        <v>38200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -417,72 +417,72 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ahmed Test</v>
+        <v xml:space="preserve">lamyae nada </v>
       </c>
       <c r="B2" t="str">
-        <v>BG1949</v>
+        <v>J3546543</v>
       </c>
       <c r="C2" t="str">
-        <v>117165465787878754625432</v>
+        <v>314646312654974135486318</v>
       </c>
       <c r="D2" t="str">
-        <v>bmce</v>
+        <v>CASA 5</v>
       </c>
       <c r="E2" t="str">
-        <v>bmce</v>
+        <v>BMCE</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>794/DR KESH</v>
+        <v>886/CASA SUD 1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K2">
-        <v>8500</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>real madrid fc</v>
+        <v>kamal lolo</v>
       </c>
       <c r="B3" t="str">
-        <v>110384</v>
+        <v>H2356889</v>
       </c>
       <c r="C3" t="str">
-        <v>114298485748578394873948</v>
+        <v>326556413565468543153468</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>casa 55</v>
       </c>
       <c r="E3" t="str">
-        <v>bmce</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>108/ANSYSFYSN01/AV1</v>
+        <v>886/CASA SUD 1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K3">
-        <v>18300</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>26800</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,392 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TEST TEST</v>
+        <v>SOUMIA LALA</v>
       </c>
       <c r="B2" t="str">
-        <v>BJ123456</v>
+        <v>HJ325474</v>
       </c>
       <c r="C2" t="str">
-        <v>123134657354343543432433</v>
+        <v>354545646543446354548664</v>
       </c>
       <c r="D2" t="str">
-        <v>324324</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>34324</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Siège</v>
       </c>
       <c r="G2" t="str">
-        <v>001/TEST DR</v>
+        <v>001/WAFAE IMM</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>103547357.32</v>
+        <v>270000</v>
       </c>
       <c r="J2">
-        <v>15532103.6</v>
+        <v>40500</v>
       </c>
       <c r="K2">
-        <v>88015253.73</v>
+        <v>229500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>SOUMIA LALA</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HJ325474</v>
+      </c>
+      <c r="C3" t="str">
+        <v>354545646543446354548664</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G3" t="str">
+        <v>887/TANGER MEDINA</v>
+      </c>
+      <c r="H3" t="str">
+        <v>annuelle</v>
+      </c>
+      <c r="I3">
+        <v>55879</v>
+      </c>
+      <c r="J3">
+        <v>5587.9</v>
+      </c>
+      <c r="K3">
+        <v>50291.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>STÉ LOCATION 22</v>
+      </c>
+      <c r="B4" t="str">
+        <v>68764654</v>
+      </c>
+      <c r="C4" t="str">
+        <v>365264765446874354647687</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G4" t="str">
+        <v>887/TANGER MEDINA</v>
+      </c>
+      <c r="H4" t="str">
+        <v>annuelle</v>
+      </c>
+      <c r="I4">
+        <v>22336</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>22336</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>HANANE TIFA</v>
+      </c>
+      <c r="B5" t="str">
+        <v>K3545445</v>
+      </c>
+      <c r="C5" t="str">
+        <v>545646543447684351587654</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G5" t="str">
+        <v>887/TANGER MEDINA</v>
+      </c>
+      <c r="H5" t="str">
+        <v>annuelle</v>
+      </c>
+      <c r="I5">
+        <v>21785</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>21785</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KAMILIA LALA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>D235689</v>
+      </c>
+      <c r="C6" t="str">
+        <v>314564867486153468743615</v>
+      </c>
+      <c r="D6" t="str">
+        <v>AG1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve">910/TANGER </v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>48000</v>
+      </c>
+      <c r="J6">
+        <v>3600</v>
+      </c>
+      <c r="K6">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>NABIL MOMO</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Z213568</v>
+      </c>
+      <c r="C7" t="str">
+        <v>235464684763654645867465</v>
+      </c>
+      <c r="D7" t="str">
+        <v>AG2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G7" t="str">
+        <v xml:space="preserve">910/TANGER </v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>32000</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>STÉ LOCATION 1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>35464645</v>
+      </c>
+      <c r="C8" t="str">
+        <v>345687864365469787346546</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve">910/LF/TANGER </v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>28323.43</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>28323.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>MORAD JOJO</v>
+      </c>
+      <c r="B9" t="str">
+        <v>L5245475</v>
+      </c>
+      <c r="C9" t="str">
+        <v>245354564354676745346547</v>
+      </c>
+      <c r="D9" t="str">
+        <v>AG55</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G9" t="str">
+        <v xml:space="preserve">910/LF/TANGER </v>
+      </c>
+      <c r="H9" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I9">
+        <v>11676.57</v>
+      </c>
+      <c r="J9">
+        <v>583.83</v>
+      </c>
+      <c r="K9">
+        <v>11092.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>STÉ LOCATION 1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>35464645</v>
+      </c>
+      <c r="C10" t="str">
+        <v>345687864365469787346546</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G10" t="str">
+        <v>779/SUP TANGER 1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I10">
+        <v>112500</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>NABIL MOMO</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Z213568</v>
+      </c>
+      <c r="C11" t="str">
+        <v>235464684763654645867465</v>
+      </c>
+      <c r="D11" t="str">
+        <v>AG2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G11" t="str">
+        <v>779/SUP TANGER 1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="I11">
+        <v>37500</v>
+      </c>
+      <c r="J11">
+        <v>1250</v>
+      </c>
+      <c r="K11">
+        <v>36250</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B3" t="str">
+      <c r="B12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" t="str">
+      <c r="C12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D3" t="str">
+      <c r="D12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" t="str">
+      <c r="E12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F3" t="str">
+      <c r="F12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G3" t="str">
+      <c r="G12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H3" t="str">
+      <c r="H12" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I3">
-        <v>103547357.32</v>
-      </c>
-      <c r="J3">
-        <v>15532103.6</v>
-      </c>
-      <c r="K3">
-        <v>88015253.73</v>
+      <c r="I12">
+        <v>640000</v>
+      </c>
+      <c r="J12">
+        <v>51521.73</v>
+      </c>
+      <c r="K12">
+        <v>588478.27</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,392 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SOUMIA LALA</v>
+        <v>TETS TESTS</v>
       </c>
       <c r="B2" t="str">
-        <v>HJ325474</v>
+        <v>BG432432</v>
       </c>
       <c r="C2" t="str">
-        <v>354545646543446354548664</v>
+        <v>321321321312111111111111</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>111</v>
       </c>
       <c r="F2" t="str">
-        <v>Siège</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/WAFAE IMM</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>270000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>40500</v>
+        <v>3000</v>
       </c>
       <c r="K2">
-        <v>229500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SOUMIA LALA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>HJ325474</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>354545646543446354548664</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>887/TANGER MEDINA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>annuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>55879</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>5587.9</v>
+        <v>3000</v>
       </c>
       <c r="K3">
-        <v>50291.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>STÉ LOCATION 22</v>
-      </c>
-      <c r="B4" t="str">
-        <v>68764654</v>
-      </c>
-      <c r="C4" t="str">
-        <v>365264765446874354647687</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G4" t="str">
-        <v>887/TANGER MEDINA</v>
-      </c>
-      <c r="H4" t="str">
-        <v>annuelle</v>
-      </c>
-      <c r="I4">
-        <v>22336</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>22336</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HANANE TIFA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>K3545445</v>
-      </c>
-      <c r="C5" t="str">
-        <v>545646543447684351587654</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>887/TANGER MEDINA</v>
-      </c>
-      <c r="H5" t="str">
-        <v>annuelle</v>
-      </c>
-      <c r="I5">
-        <v>21785</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>21785</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>KAMILIA LALA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>D235689</v>
-      </c>
-      <c r="C6" t="str">
-        <v>314564867486153468743615</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AG1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve">910/TANGER </v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>48000</v>
-      </c>
-      <c r="J6">
-        <v>3600</v>
-      </c>
-      <c r="K6">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NABIL MOMO</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Z213568</v>
-      </c>
-      <c r="C7" t="str">
-        <v>235464684763654645867465</v>
-      </c>
-      <c r="D7" t="str">
-        <v>AG2</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve">910/TANGER </v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>32000</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>STÉ LOCATION 1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>35464645</v>
-      </c>
-      <c r="C8" t="str">
-        <v>345687864365469787346546</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve">910/LF/TANGER </v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>28323.43</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>28323.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>MORAD JOJO</v>
-      </c>
-      <c r="B9" t="str">
-        <v>L5245475</v>
-      </c>
-      <c r="C9" t="str">
-        <v>245354564354676745346547</v>
-      </c>
-      <c r="D9" t="str">
-        <v>AG55</v>
-      </c>
-      <c r="E9" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve">910/LF/TANGER </v>
-      </c>
-      <c r="H9" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I9">
-        <v>11676.57</v>
-      </c>
-      <c r="J9">
-        <v>583.83</v>
-      </c>
-      <c r="K9">
-        <v>11092.74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>STÉ LOCATION 1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>35464645</v>
-      </c>
-      <c r="C10" t="str">
-        <v>345687864365469787346546</v>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G10" t="str">
-        <v>779/SUP TANGER 1</v>
-      </c>
-      <c r="H10" t="str">
-        <v>trimestrielle</v>
-      </c>
-      <c r="I10">
-        <v>112500</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>NABIL MOMO</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Z213568</v>
-      </c>
-      <c r="C11" t="str">
-        <v>235464684763654645867465</v>
-      </c>
-      <c r="D11" t="str">
-        <v>AG2</v>
-      </c>
-      <c r="E11" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G11" t="str">
-        <v>779/SUP TANGER 1</v>
-      </c>
-      <c r="H11" t="str">
-        <v>trimestrielle</v>
-      </c>
-      <c r="I11">
-        <v>37500</v>
-      </c>
-      <c r="J11">
-        <v>1250</v>
-      </c>
-      <c r="K11">
-        <v>36250</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H12" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I12">
-        <v>640000</v>
-      </c>
-      <c r="J12">
-        <v>51521.73</v>
-      </c>
-      <c r="K12">
-        <v>588478.27</v>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_5_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,147 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TEST TEST</v>
+        <v>JALAL MED</v>
       </c>
       <c r="B2" t="str">
-        <v>BJH4195</v>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
-        <v>114351111111111111111111</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D2" t="str">
-        <v>CIH TEST</v>
+        <v>AGG</v>
       </c>
       <c r="E2" t="str">
-        <v>CIH</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Supervision</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>001/SUP RABAT</v>
+        <v>908/LF/DIRECTION RÉGIONALE SUD</v>
       </c>
       <c r="H2" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2">
-        <v>20000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TEST TEST</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v>BJH4195</v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v>114351111111111111111111</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v>CIH TEST</v>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v>CIH</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F3" t="str">
-        <v>Supervision</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>001/SUP RABAT</v>
+        <v>389/Aourir</v>
       </c>
       <c r="H3" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K3">
-        <v>20000</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>AHMED TEST</v>
+        <v>SOCIETE 1</v>
       </c>
       <c r="B4" t="str">
-        <v>BB193467</v>
+        <v>354646</v>
       </c>
       <c r="C4" t="str">
-        <v>119354354358435435435435</v>
+        <v>54544646446464646464444464</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Agence 1</v>
       </c>
       <c r="E4" t="str">
-        <v>BMCE</v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v>Supervision</v>
       </c>
       <c r="G4" t="str">
-        <v>009/DR RABAT</v>
+        <v>001/SUP SUD</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>J207703</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00101211115087750001201090</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Ait souss</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>908/Direction Régionale SUD</v>
       </c>
       <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K5">
-        <v>58500</v>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>44400</v>
+      </c>
+      <c r="J6">
+        <v>4700</v>
+      </c>
+      <c r="K6">
+        <v>39700</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>